--- a/groups.xlsx
+++ b/groups.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{497BEF48-2DD0-46A7-AC1F-94BDD2782EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DED5076-34BE-4095-B153-4D6775B35A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -48,10 +48,16 @@
     <t>M</t>
   </si>
   <si>
+    <t>4,4</t>
+  </si>
+  <si>
     <t>Andrew</t>
   </si>
   <si>
     <t>Ethan</t>
+  </si>
+  <si>
+    <t>3,99</t>
   </si>
   <si>
     <t>John</t>
@@ -563,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -587,71 +593,71 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -659,10 +665,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -670,10 +676,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -681,10 +687,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -718,7 +724,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -729,7 +735,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -740,7 +746,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -751,7 +757,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -762,7 +768,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -773,7 +779,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -784,10 +790,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -795,10 +801,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -806,10 +812,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -817,10 +823,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -854,7 +860,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -865,7 +871,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -876,7 +882,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -887,10 +893,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -898,10 +904,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -909,10 +915,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -920,10 +926,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -931,10 +937,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -942,10 +948,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -953,10 +959,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -971,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -990,7 +996,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1001,7 +1007,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1012,7 +1018,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1023,7 +1029,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1034,7 +1040,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1045,10 +1051,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1056,10 +1062,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -1067,10 +1073,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -1078,10 +1084,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -1089,10 +1095,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>4</v>
